--- a/bikedef3.xlsx
+++ b/bikedef3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\code\triangle-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{960379AF-7425-441F-99ED-A0FE99F960CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559B8E0A-7768-4DBF-95D3-14C862BE68D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="3960" windowWidth="17700" windowHeight="5085" activeTab="2" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17700" windowHeight="5085" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicledyn" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027EF2B-558D-425C-8AA2-44CBB5FD91AE}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,10 @@
         <v>0.41128501861930683</v>
       </c>
       <c r="R3">
-        <v>2.1910929266586197E-2</v>
+        <v>8.9017473503295152E-3</v>
       </c>
       <c r="S3">
-        <v>1.4271632589302385</v>
+        <v>0.57981323403036367</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>0.41145913855477567</v>
       </c>
       <c r="R4">
-        <v>2.3811016607035797E-2</v>
+        <v>9.6781175597538734E-3</v>
       </c>
       <c r="S4">
-        <v>1.4241726578284892</v>
+        <v>0.57886274388547043</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -687,10 +687,10 @@
         <v>0.41156462585034015</v>
       </c>
       <c r="R5">
-        <v>2.4869952582639521E-2</v>
+        <v>1.0111317254174398E-2</v>
       </c>
       <c r="S5">
-        <v>1.4224548108657702</v>
+        <v>0.57832405689548549</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>0.40860116032783866</v>
       </c>
       <c r="R6">
-        <v>2.5324194356224662E-2</v>
+        <v>1.0221935721521318E-2</v>
       </c>
       <c r="S6">
-        <v>1.4398287439831878</v>
+        <v>0.58117690395064003</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>0.4116264687693259</v>
       </c>
       <c r="R7">
-        <v>2.5550319626382784E-2</v>
+        <v>1.038961038961039E-2</v>
       </c>
       <c r="S7">
-        <v>1.4213886144534138</v>
+        <v>0.57798392084106376</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -792,10 +792,10 @@
         <v>0.4116264687693259</v>
       </c>
       <c r="R8">
-        <v>2.5626319548958543E-2</v>
+        <v>1.0420531849103279E-2</v>
       </c>
       <c r="S8">
-        <v>1.421310203826659</v>
+        <v>0.57795299938157074</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -827,10 +827,10 @@
         <v>0.41165739022881881</v>
       </c>
       <c r="R9">
-        <v>2.5700381780550487E-2</v>
+        <v>1.0451453308596165E-2</v>
       </c>
       <c r="S9">
-        <v>1.4210486245464737</v>
+        <v>0.57789115646258504</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -8628,7 +8628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE9AA78-FBF9-4F08-BC5C-A2CFB1B47071}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/bikedef3.xlsx
+++ b/bikedef3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\code\triangle-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559B8E0A-7768-4DBF-95D3-14C862BE68D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91791AE-F1C1-48AD-9EAB-4D5183A22524}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="17700" windowHeight="5085" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17700" windowHeight="5085" activeTab="3" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicledyn" sheetId="1" r:id="rId1"/>
     <sheet name="engine" sheetId="2" r:id="rId2"/>
     <sheet name="gear" sheetId="3" r:id="rId3"/>
+    <sheet name="electric" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Info</t>
   </si>
@@ -132,6 +133,39 @@
   </si>
   <si>
     <t>Fuel heating value (MJ/kg)</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Extant</t>
+  </si>
+  <si>
+    <t>Gear ratio</t>
+  </si>
+  <si>
+    <t>Controller eff</t>
+  </si>
+  <si>
+    <t>Battery eff</t>
+  </si>
+  <si>
+    <t>Supercap eff</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Side</t>
   </si>
 </sst>
 </file>
@@ -485,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027EF2B-558D-425C-8AA2-44CBB5FD91AE}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:S9"/>
     </sheetView>
   </sheetViews>
@@ -8711,4 +8745,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4512FEB8-A77F-44C5-9B91-FD5D433533ED}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>